--- a/WebserviceManager/i2D-Dev-URL-Parm File.xlsx
+++ b/WebserviceManager/i2D-Dev-URL-Parm File.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indu/Indu_RS/i2-Donate/i2-Donate Product Development/i2D-Developer Info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781E43DE-54B9-B748-A812-CC1BD2646D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409006F6-E08A-1847-8133-DB1A20E85654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="1900" windowWidth="28040" windowHeight="17440" xr2:uid="{74F1CF67-44FA-684C-8D4E-76C3B8C51CF7}"/>
+    <workbookView xWindow="2200" yWindow="1160" windowWidth="28040" windowHeight="17440" xr2:uid="{74F1CF67-44FA-684C-8D4E-76C3B8C51CF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,16 +51,16 @@
     <t>https://test.i2-donate.com/Webservice</t>
   </si>
   <si>
-    <t>https://test.i2-donate.com/i2D-Publish-Docs/i2-Donate Terms and Conditions.html</t>
-  </si>
-  <si>
-    <t>https://test.i2-donate.com/i2D-Publish-Docs/i2-Donate Privacy Policy.html</t>
-  </si>
-  <si>
-    <t>https://test.i2-donate.com/i2D-Publish-Docs/i2-Donate Help and Support.html</t>
-  </si>
-  <si>
-    <t>https://test.i2-donate.com/i2D-Publish-Docs/i2-Donate-About-App.html</t>
+    <t>https://dev.i2-donate.com/i2D-Publish-Docs/i2-Donate Terms and Conditions.html</t>
+  </si>
+  <si>
+    <t>https://dev.i2-donate.com/i2D-Publish-Docs/i2-Donate Privacy Policy.html</t>
+  </si>
+  <si>
+    <t>https://dev.i2-donate.com/i2D-Publish-Docs/i2-Donate Help and Support.html</t>
+  </si>
+  <si>
+    <t>https://dev.i2-donate.com/i2D-Publish-Docs/i2-Donate About App.html</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
